--- a/doc/펌뱅킹_은행코드.xlsx
+++ b/doc/펌뱅킹_은행코드.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="18075" windowHeight="11820"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="18075" windowHeight="11820" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="펌뱅킹테스트케이스검토" sheetId="1" r:id="rId1"/>
     <sheet name="은행정리" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="펌뱅킹 관련 코드" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="245">
   <si>
     <t>기업은행</t>
   </si>
@@ -702,6 +702,152 @@
   </si>
   <si>
     <t>A</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>신한은행</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>우리은행</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>026</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C1004</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C1003</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>은행코드</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>거래기관코드 - 참고
+BUSER.BVAT_TR_ORG_BASE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>56201~~~~~~~~~</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>26665~~~~~~~~~</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>가상계좌번호(14자리)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>020</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>021 / 026 / 088
+088 - 기준</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>예금관리 - 기타
+은행계좌 일치 필요
+EUSER.EFDT_DEPO_BASE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Z00000000119</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Z00000000520</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>거래처관리 [기타]
+EUSER.EACT_BUSI</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>거래처관리 [금융]
+EUSER.EACT_BUSI</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Z00000000002</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Z00000000508</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>지급모계좌 관리
+AUSER.ALOT_MO_ACNT_BASE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[03] [100024180210]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[03] [1002638811651]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>거래유형코드</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>영업팀 가상모계좌 신한은행 [D0177]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>영업팀 가상모계좌 우리은행 [D0203]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>영업팀 대출금계좌 신한은행 [D0178]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>영업팀 대출금계좌 우리은행 [D0202]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>S0030</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>S0320</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>R0030 - 010
+R0030 - 020</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>R0320 - 010
+R0320 - 020</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>가상계좌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>지급계좌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>위 코드 외 모두
+020</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -709,7 +855,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="9"/>
       <color theme="1"/>
@@ -728,6 +874,22 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="22"/>
+      <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
@@ -789,7 +951,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -842,6 +1004,18 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1143,8 +1317,8 @@
   </sheetPr>
   <dimension ref="A1:V87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C28" workbookViewId="0">
-      <selection activeCell="I38" sqref="I38"/>
+    <sheetView topLeftCell="C28" workbookViewId="0">
+      <selection activeCell="N50" sqref="N50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -3895,13 +4069,200 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="B2:I11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="2.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="8.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.28515625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="33" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="16.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.28515625" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9" ht="33.75">
+      <c r="C2" s="19" t="s">
+        <v>242</v>
+      </c>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+    </row>
+    <row r="3" spans="2:9" ht="36">
+      <c r="B3" s="4"/>
+      <c r="C3" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>217</v>
+      </c>
+      <c r="F3" s="20" t="s">
+        <v>223</v>
+      </c>
+      <c r="G3" s="20" t="s">
+        <v>226</v>
+      </c>
+      <c r="H3" s="20" t="s">
+        <v>227</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" ht="24">
+      <c r="B4" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="F4" s="21" t="s">
+        <v>234</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="I4" s="21" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" ht="24">
+      <c r="B5" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="F5" s="21" t="s">
+        <v>235</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="I5" s="21" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" ht="31.5">
+      <c r="C8" s="18" t="s">
+        <v>243</v>
+      </c>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+    </row>
+    <row r="9" spans="2:9" ht="36">
+      <c r="B9" s="4"/>
+      <c r="C9" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>230</v>
+      </c>
+      <c r="E9" s="4"/>
+      <c r="F9" s="20" t="s">
+        <v>223</v>
+      </c>
+      <c r="G9" s="20" t="s">
+        <v>226</v>
+      </c>
+      <c r="H9" s="20" t="s">
+        <v>227</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" ht="24">
+      <c r="B10" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>222</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="21" t="s">
+        <v>236</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" ht="24">
+      <c r="B11" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>244</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="21" t="s">
+        <v>237</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>239</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C2:I2"/>
+    <mergeCell ref="C8:I8"/>
+  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" copies="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/doc/펌뱅킹_은행코드.xlsx
+++ b/doc/펌뱅킹_은행코드.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="18075" windowHeight="11820" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="18075" windowHeight="11820"/>
   </bookViews>
   <sheets>
     <sheet name="펌뱅킹테스트케이스검토" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="248">
   <si>
     <t>기업은행</t>
   </si>
@@ -848,6 +848,18 @@
   <si>
     <t>위 코드 외 모두
 020</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 지급계좌 처리 루틴이 지급업무구분 - '10' 도 같이 사용하므로 '10'일 경우 항상 신한은행이 세팅되도록 수정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 지급업무구분 - '03' 일 경우, 자동 전표까지 처리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 지급업무구분 - '10' 일 때는 지급전문만 처리함</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1006,17 +1018,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1317,8 +1329,8 @@
   </sheetPr>
   <dimension ref="A1:V87"/>
   <sheetViews>
-    <sheetView topLeftCell="C28" workbookViewId="0">
-      <selection activeCell="N50" sqref="N50"/>
+    <sheetView tabSelected="1" topLeftCell="C34" workbookViewId="0">
+      <selection activeCell="G55" sqref="G55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -4069,10 +4081,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:I11"/>
+  <dimension ref="B2:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -4089,15 +4101,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" ht="33.75">
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="20" t="s">
         <v>242</v>
       </c>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
     </row>
     <row r="3" spans="2:9" ht="36">
       <c r="B3" s="4"/>
@@ -4107,16 +4119,16 @@
       <c r="D3" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="E3" s="20" t="s">
+      <c r="E3" s="18" t="s">
         <v>217</v>
       </c>
-      <c r="F3" s="20" t="s">
+      <c r="F3" s="18" t="s">
         <v>223</v>
       </c>
-      <c r="G3" s="20" t="s">
+      <c r="G3" s="18" t="s">
         <v>226</v>
       </c>
-      <c r="H3" s="20" t="s">
+      <c r="H3" s="18" t="s">
         <v>227</v>
       </c>
       <c r="I3" s="4" t="s">
@@ -4136,7 +4148,7 @@
       <c r="E4" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="F4" s="21" t="s">
+      <c r="F4" s="19" t="s">
         <v>234</v>
       </c>
       <c r="G4" s="3" t="s">
@@ -4145,7 +4157,7 @@
       <c r="H4" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="I4" s="21" t="s">
+      <c r="I4" s="19" t="s">
         <v>240</v>
       </c>
     </row>
@@ -4162,7 +4174,7 @@
       <c r="E5" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="F5" s="21" t="s">
+      <c r="F5" s="19" t="s">
         <v>235</v>
       </c>
       <c r="G5" s="3" t="s">
@@ -4171,37 +4183,37 @@
       <c r="H5" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="I5" s="21" t="s">
+      <c r="I5" s="19" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="8" spans="2:9" ht="31.5">
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="21" t="s">
         <v>243</v>
       </c>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
     </row>
     <row r="9" spans="2:9" ht="36">
       <c r="B9" s="4"/>
       <c r="C9" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="D9" s="20" t="s">
+      <c r="D9" s="18" t="s">
         <v>230</v>
       </c>
       <c r="E9" s="4"/>
-      <c r="F9" s="20" t="s">
+      <c r="F9" s="18" t="s">
         <v>223</v>
       </c>
-      <c r="G9" s="20" t="s">
+      <c r="G9" s="18" t="s">
         <v>226</v>
       </c>
-      <c r="H9" s="20" t="s">
+      <c r="H9" s="18" t="s">
         <v>227</v>
       </c>
       <c r="I9" s="4" t="s">
@@ -4212,14 +4224,14 @@
       <c r="B10" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="C10" s="21" t="s">
+      <c r="C10" s="19" t="s">
         <v>222</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>231</v>
       </c>
       <c r="E10" s="3"/>
-      <c r="F10" s="21" t="s">
+      <c r="F10" s="19" t="s">
         <v>236</v>
       </c>
       <c r="G10" s="3" t="s">
@@ -4236,14 +4248,14 @@
       <c r="B11" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="C11" s="21" t="s">
+      <c r="C11" s="19" t="s">
         <v>244</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>232</v>
       </c>
       <c r="E11" s="3"/>
-      <c r="F11" s="21" t="s">
+      <c r="F11" s="19" t="s">
         <v>237</v>
       </c>
       <c r="G11" s="3" t="s">
@@ -4254,6 +4266,21 @@
       </c>
       <c r="I11" s="3" t="s">
         <v>239</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9">
+      <c r="B14" s="2" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9">
+      <c r="B15" s="2" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9">
+      <c r="B16" s="2" t="s">
+        <v>247</v>
       </c>
     </row>
   </sheetData>
